--- a/CourseGraph_Effort_Plan.xlsx
+++ b/CourseGraph_Effort_Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ambarirfan/Desktop/Software Projekt/coursegraph/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92609273-9644-1F45-ACBE-8F5025AF0686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24FF2F1-933E-AF4F-BDD6-52C88ADCE71C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="157">
   <si>
     <t>CourseGraph - Effort Plan</t>
   </si>
@@ -713,34 +713,34 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1048,7 +1048,7 @@
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1063,30 +1063,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1119,17 +1119,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1248,17 +1248,17 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
@@ -1277,9 +1277,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>16</v>
       </c>
@@ -1304,9 +1302,7 @@
         <v>12</v>
       </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
         <v>16</v>
       </c>
@@ -1331,9 +1327,7 @@
         <v>6</v>
       </c>
       <c r="F13" s="4"/>
-      <c r="G13" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1358,9 +1352,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="4"/>
-      <c r="G14" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G14" s="4"/>
       <c r="H14" s="4" t="s">
         <v>42</v>
       </c>
@@ -1385,9 +1377,7 @@
         <v>8</v>
       </c>
       <c r="F15" s="4"/>
-      <c r="G15" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>16</v>
       </c>
@@ -1412,9 +1402,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G16" s="4"/>
       <c r="H16" s="4" t="s">
         <v>51</v>
       </c>
@@ -1423,17 +1411,17 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
@@ -1452,9 +1440,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="6"/>
-      <c r="G18" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
         <v>16</v>
       </c>
@@ -1479,9 +1465,7 @@
         <v>3</v>
       </c>
       <c r="F19" s="6"/>
-      <c r="G19" s="6" t="s">
-        <v>46</v>
-      </c>
+      <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
         <v>16</v>
       </c>
@@ -1506,9 +1490,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="6"/>
-      <c r="G20" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1533,9 +1515,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="6"/>
-      <c r="G21" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
         <v>16</v>
       </c>
@@ -1560,9 +1540,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="6"/>
-      <c r="G22" s="6" t="s">
-        <v>63</v>
-      </c>
+      <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
         <v>51</v>
       </c>
@@ -1571,17 +1549,17 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -1600,9 +1578,7 @@
         <v>8</v>
       </c>
       <c r="F24" s="4"/>
-      <c r="G24" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G24" s="4"/>
       <c r="H24" s="4" t="s">
         <v>51</v>
       </c>
@@ -1627,9 +1603,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="4"/>
-      <c r="G25" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
         <v>51</v>
       </c>
@@ -1654,9 +1628,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G26" s="4"/>
       <c r="H26" s="4" t="s">
         <v>51</v>
       </c>
@@ -1681,9 +1653,7 @@
         <v>12</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4" t="s">
-        <v>38</v>
-      </c>
+      <c r="G27" s="4"/>
       <c r="H27" s="4" t="s">
         <v>51</v>
       </c>
@@ -1708,9 +1678,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="4"/>
-      <c r="G28" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="G28" s="4"/>
       <c r="H28" s="4" t="s">
         <v>51</v>
       </c>
@@ -1719,17 +1687,17 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
@@ -1748,9 +1716,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G30" s="4"/>
       <c r="H30" s="4" t="s">
         <v>51</v>
       </c>
@@ -1775,9 +1741,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="G31" s="4"/>
       <c r="H31" s="4" t="s">
         <v>51</v>
       </c>
@@ -1802,9 +1766,7 @@
         <v>12</v>
       </c>
       <c r="F32" s="4"/>
-      <c r="G32" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4" t="s">
         <v>51</v>
       </c>
@@ -1829,9 +1791,7 @@
         <v>8</v>
       </c>
       <c r="F33" s="4"/>
-      <c r="G33" s="4" t="s">
-        <v>63</v>
-      </c>
+      <c r="G33" s="4"/>
       <c r="H33" s="4" t="s">
         <v>51</v>
       </c>
@@ -1840,17 +1800,17 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -1869,9 +1829,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="8"/>
-      <c r="G35" s="8" t="s">
-        <v>31</v>
-      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="8" t="s">
         <v>51</v>
       </c>
@@ -1896,9 +1854,7 @@
         <v>8</v>
       </c>
       <c r="F36" s="8"/>
-      <c r="G36" s="8" t="s">
-        <v>38</v>
-      </c>
+      <c r="G36" s="8"/>
       <c r="H36" s="8" t="s">
         <v>51</v>
       </c>
@@ -1923,9 +1879,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="8"/>
-      <c r="G37" s="8" t="s">
-        <v>15</v>
-      </c>
+      <c r="G37" s="8"/>
       <c r="H37" s="8" t="s">
         <v>51</v>
       </c>
@@ -1950,9 +1904,7 @@
         <v>4</v>
       </c>
       <c r="F38" s="8"/>
-      <c r="G38" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="G38" s="8"/>
       <c r="H38" s="8" t="s">
         <v>51</v>
       </c>
@@ -1977,9 +1929,7 @@
         <v>4</v>
       </c>
       <c r="F39" s="8"/>
-      <c r="G39" s="8" t="s">
-        <v>63</v>
-      </c>
+      <c r="G39" s="8"/>
       <c r="H39" s="8" t="s">
         <v>51</v>
       </c>
@@ -2004,9 +1954,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="4"/>
-      <c r="G40" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4" t="s">
         <v>51</v>
       </c>
@@ -2015,17 +1963,17 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="22"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
@@ -2044,9 +1992,7 @@
         <v>6</v>
       </c>
       <c r="F42" s="10"/>
-      <c r="G42" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="G42" s="10"/>
       <c r="H42" s="10" t="s">
         <v>51</v>
       </c>
@@ -2071,9 +2017,7 @@
         <v>8</v>
       </c>
       <c r="F43" s="10"/>
-      <c r="G43" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="G43" s="10"/>
       <c r="H43" s="10" t="s">
         <v>51</v>
       </c>
@@ -2098,9 +2042,7 @@
         <v>2</v>
       </c>
       <c r="F44" s="10"/>
-      <c r="G44" s="10" t="s">
-        <v>155</v>
-      </c>
+      <c r="G44" s="10"/>
       <c r="H44" s="10" t="s">
         <v>16</v>
       </c>
@@ -2125,9 +2067,7 @@
         <v>4</v>
       </c>
       <c r="F45" s="10"/>
-      <c r="G45" s="10" t="s">
-        <v>38</v>
-      </c>
+      <c r="G45" s="10"/>
       <c r="H45" s="10" t="s">
         <v>51</v>
       </c>
@@ -2152,9 +2092,7 @@
         <v>8</v>
       </c>
       <c r="F46" s="10"/>
-      <c r="G46" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="G46" s="10"/>
       <c r="H46" s="10" t="s">
         <v>51</v>
       </c>
@@ -2163,72 +2101,79 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="20"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="24" t="s">
+      <c r="A49" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="12">
         <f>SUMIF(E5:E46,"&gt;0")</f>
         <v>230</v>
       </c>
-      <c r="F49" s="26"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="13">
         <f>COUNTIF(H5:H46,"Done ✓")</f>
         <v>13</v>
       </c>
-      <c r="F50" s="27"/>
+      <c r="F50" s="17"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="13">
         <f>COUNTIF(H5:H46,"In Progress")</f>
         <v>1</v>
       </c>
-      <c r="F51" s="27"/>
+      <c r="F51" s="17"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="13">
         <f>COUNTIF(H5:H46,"To Do")</f>
         <v>21</v>
       </c>
-      <c r="F52" s="27"/>
+      <c r="F52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A48:I48"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A52:D52"/>
     <mergeCell ref="A41:I41"/>
     <mergeCell ref="A51:D51"/>
@@ -2236,13 +2181,6 @@
     <mergeCell ref="A23:I23"/>
     <mergeCell ref="A49:D49"/>
     <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A48:I48"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2263,13 +2201,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
